--- a/biology/Zoologie/Fou_à_pieds_rouges/Fou_à_pieds_rouges.xlsx
+++ b/biology/Zoologie/Fou_à_pieds_rouges/Fou_à_pieds_rouges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fou_%C3%A0_pieds_rouges</t>
+          <t>Fou_à_pieds_rouges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sula sula
 Le Fou à pieds rouges (Sula sula) est une espèce d'oiseaux marins appartenant à la famille des Sulidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fou_%C3%A0_pieds_rouges</t>
+          <t>Fou_à_pieds_rouges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce niche sur les îles et les côtes océaniques tropicales. Elle hiverne en mer.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fou_%C3%A0_pieds_rouges</t>
+          <t>Fou_à_pieds_rouges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est rare d'observer cet oiseau loin des sites de reproduction, où il se rassemble en grandes colonies. L'œuf unique, de couleur bleu pâle, est pondu dans un nid de branchages sur un arbre. Il est couvé par les 2 parents pendant 44 à 46 jours. Le jeune oiseau peut attendre jusqu'à trois mois avant de pouvoir voler pour la première fois, et jusqu'à cinq mois avant de véritablement faire de longs vols.
 Les couples de fous à pieds rouges peuvent rester ensemble pendant plusieurs saisons. Ils pratiquent des rituels de salutation élaborés, comprenant des cris rauques. Les mâles gonflent leur gorge bleue.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fou_%C3%A0_pieds_rouges</t>
+          <t>Fou_à_pieds_rouges</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le plus petit des fous, (longueur : 71 cm / envergure : 137 cm). Il possède des pattes rouges. Le bec et la gorge sont colorés de rose et de bleu. Il existe chez cette espèce deux types de plumage:  blanc (sauf les rémiges qui sont noires) ou brun (sauf la queue et le bas du ventre qui sont blancs, la forme pacifique est entièrement brune). Les deux types peuvent coexister, comme cela est le cas dans la colonie de l'île St Giles (Trinité-et-Tobago).
 Les sexes sont semblables, mais les juvéniles sont grisâtres avec des ailes plus brunes et des pattes roses.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fou_%C3%A0_pieds_rouges</t>
+          <t>Fou_à_pieds_rouges</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fous à pieds rouges sont des plongeurs spectaculaires, pénétrant dans l'eau à très grande vitesse. Ils se nourrissent principalement de petits poissons et de calmars. Bien qu'agiles et puissants en vol, ils sont maladroits à l'envol et à l'atterrissage.
 </t>
